--- a/Code/Results/Cases/Case_6_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_21/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9980773399862141</v>
+        <v>0.9961101176679293</v>
       </c>
       <c r="D2">
-        <v>1.015289801250018</v>
+        <v>1.014296551143057</v>
       </c>
       <c r="E2">
-        <v>1.01057081003225</v>
+        <v>1.009199291223594</v>
       </c>
       <c r="F2">
-        <v>1.012964265006854</v>
+        <v>1.011417025901941</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040711372459533</v>
+        <v>1.04060593530576</v>
       </c>
       <c r="J2">
-        <v>1.0203157099521</v>
+        <v>1.018407800206756</v>
       </c>
       <c r="K2">
-        <v>1.026540156537403</v>
+        <v>1.025560241558646</v>
       </c>
       <c r="L2">
-        <v>1.021884815166294</v>
+        <v>1.020531935935054</v>
       </c>
       <c r="M2">
-        <v>1.024245893990758</v>
+        <v>1.02271956228934</v>
       </c>
       <c r="N2">
-        <v>1.021764675292076</v>
+        <v>1.019854056096055</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005367138807541</v>
+        <v>1.000970387370037</v>
       </c>
       <c r="D3">
-        <v>1.020707845110464</v>
+        <v>1.017781612154617</v>
       </c>
       <c r="E3">
-        <v>1.016989063457595</v>
+        <v>1.013416012164916</v>
       </c>
       <c r="F3">
-        <v>1.020157338331012</v>
+        <v>1.016314158065783</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04254403872473</v>
+        <v>1.041608174159004</v>
       </c>
       <c r="J3">
-        <v>1.025712551916474</v>
+        <v>1.021434633557929</v>
       </c>
       <c r="K3">
-        <v>1.031082447737009</v>
+        <v>1.028191919086158</v>
       </c>
       <c r="L3">
-        <v>1.027409084617446</v>
+        <v>1.023880062895338</v>
       </c>
       <c r="M3">
-        <v>1.03053863850265</v>
+        <v>1.026742466364904</v>
       </c>
       <c r="N3">
-        <v>1.027169181391069</v>
+        <v>1.022885187897771</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009945568519325</v>
+        <v>1.004048120404158</v>
       </c>
       <c r="D4">
-        <v>1.024112271687548</v>
+        <v>1.019989897388175</v>
       </c>
       <c r="E4">
-        <v>1.021026712267002</v>
+        <v>1.016092496608152</v>
       </c>
       <c r="F4">
-        <v>1.02468404811237</v>
+        <v>1.019423170759829</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043681982995615</v>
+        <v>1.042231382298879</v>
       </c>
       <c r="J4">
-        <v>1.029098242343864</v>
+        <v>1.02334883865305</v>
       </c>
       <c r="K4">
-        <v>1.033928138631442</v>
+        <v>1.029852902940422</v>
       </c>
       <c r="L4">
-        <v>1.030877817805456</v>
+        <v>1.026000502918526</v>
       </c>
       <c r="M4">
-        <v>1.034493413831777</v>
+        <v>1.029292693535303</v>
       </c>
       <c r="N4">
-        <v>1.03055967988721</v>
+        <v>1.02480211138369</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011838994593786</v>
+        <v>1.00532652591964</v>
       </c>
       <c r="D5">
-        <v>1.025520439352083</v>
+        <v>1.020907421900299</v>
       </c>
       <c r="E5">
-        <v>1.022698000558473</v>
+        <v>1.017205697728704</v>
       </c>
       <c r="F5">
-        <v>1.026558192920634</v>
+        <v>1.020716447342076</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044149377605777</v>
+        <v>1.042487450085346</v>
       </c>
       <c r="J5">
-        <v>1.03049741543877</v>
+        <v>1.024143303132975</v>
       </c>
       <c r="K5">
-        <v>1.035103180421535</v>
+        <v>1.030541452014843</v>
       </c>
       <c r="L5">
-        <v>1.032312054837569</v>
+        <v>1.026881299259925</v>
       </c>
       <c r="M5">
-        <v>1.036129473968408</v>
+        <v>1.030352613074735</v>
       </c>
       <c r="N5">
-        <v>1.031960839968398</v>
+        <v>1.025597704094303</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012155121318729</v>
+        <v>1.005540285619656</v>
       </c>
       <c r="D6">
-        <v>1.025755558832536</v>
+        <v>1.021060852878414</v>
       </c>
       <c r="E6">
-        <v>1.022977125368552</v>
+        <v>1.017391918751687</v>
       </c>
       <c r="F6">
-        <v>1.026871222779118</v>
+        <v>1.020932803303284</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044227223391236</v>
+        <v>1.042530100958197</v>
       </c>
       <c r="J6">
-        <v>1.030730961406592</v>
+        <v>1.024276105026942</v>
       </c>
       <c r="K6">
-        <v>1.035299256950536</v>
+        <v>1.030656500359392</v>
       </c>
       <c r="L6">
-        <v>1.032551497484476</v>
+        <v>1.02702857581423</v>
       </c>
       <c r="M6">
-        <v>1.036402661306136</v>
+        <v>1.030529875953442</v>
       </c>
       <c r="N6">
-        <v>1.032194717598284</v>
+        <v>1.025730694582192</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009970989436438</v>
+        <v>1.004065262536044</v>
       </c>
       <c r="D7">
-        <v>1.024131176729241</v>
+        <v>1.02000219951865</v>
       </c>
       <c r="E7">
-        <v>1.021049144936666</v>
+        <v>1.016107417788256</v>
       </c>
       <c r="F7">
-        <v>1.02470920189399</v>
+        <v>1.019440504909298</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043688270958542</v>
+        <v>1.042234827018677</v>
       </c>
       <c r="J7">
-        <v>1.029117031488391</v>
+        <v>1.023359494216853</v>
       </c>
       <c r="K7">
-        <v>1.033943921860871</v>
+        <v>1.029862141207927</v>
       </c>
       <c r="L7">
-        <v>1.030897074860674</v>
+        <v>1.02601231346667</v>
       </c>
       <c r="M7">
-        <v>1.034515377294719</v>
+        <v>1.029306903563284</v>
       </c>
       <c r="N7">
-        <v>1.030578495714478</v>
+        <v>1.024812782079615</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000570798947503</v>
+        <v>0.997766958559577</v>
       </c>
       <c r="D8">
-        <v>1.017142621474103</v>
+        <v>1.015484253896762</v>
       </c>
       <c r="E8">
-        <v>1.012764714668153</v>
+        <v>1.010635406583638</v>
       </c>
       <c r="F8">
-        <v>1.015422696071746</v>
+        <v>1.013084751180504</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041340948953754</v>
+        <v>1.040949967111241</v>
       </c>
       <c r="J8">
-        <v>1.022162456488455</v>
+        <v>1.019440135496081</v>
       </c>
       <c r="K8">
-        <v>1.028095285798988</v>
+        <v>1.0264584877857</v>
       </c>
       <c r="L8">
-        <v>1.023774511877491</v>
+        <v>1.021673216208675</v>
       </c>
       <c r="M8">
-        <v>1.026397732311162</v>
+        <v>1.02409035086118</v>
       </c>
       <c r="N8">
-        <v>1.023614044420341</v>
+        <v>1.020887857419903</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9828544231502527</v>
+        <v>0.9861247356981836</v>
       </c>
       <c r="D9">
-        <v>1.003990451593216</v>
+        <v>1.007147531477875</v>
       </c>
       <c r="E9">
-        <v>0.9972089659947866</v>
+        <v>1.000572706114379</v>
       </c>
       <c r="F9">
-        <v>0.9979969966946335</v>
+        <v>1.001400962707624</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036814188683858</v>
+        <v>1.038485839601695</v>
       </c>
       <c r="J9">
-        <v>1.009027510713012</v>
+        <v>1.012177162750345</v>
       </c>
       <c r="K9">
-        <v>1.017019116583892</v>
+        <v>1.020125699680899</v>
       </c>
       <c r="L9">
-        <v>1.010347488668824</v>
+        <v>1.013656498390136</v>
       </c>
       <c r="M9">
-        <v>1.011122655038172</v>
+        <v>1.014471351089007</v>
       </c>
       <c r="N9">
-        <v>1.010460445515298</v>
+        <v>1.013614570419793</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9701258310396528</v>
+        <v>0.977953791335349</v>
       </c>
       <c r="D10">
-        <v>0.9945639485863216</v>
+        <v>1.001311497205708</v>
       </c>
       <c r="E10">
-        <v>0.9860787975304223</v>
+        <v>0.993548855508222</v>
       </c>
       <c r="F10">
-        <v>0.9855344088738142</v>
+        <v>0.9932466996108609</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033496867269247</v>
+        <v>1.036699265818673</v>
       </c>
       <c r="J10">
-        <v>0.9995769919176081</v>
+        <v>1.007070256430205</v>
       </c>
       <c r="K10">
-        <v>1.009032051204465</v>
+        <v>1.015657112471406</v>
       </c>
       <c r="L10">
-        <v>1.000704036484541</v>
+        <v>1.008035572511218</v>
       </c>
       <c r="M10">
-        <v>1.000169849960952</v>
+        <v>1.007738967004659</v>
       </c>
       <c r="N10">
-        <v>1.000996505899214</v>
+        <v>1.008500411706909</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9643589725827256</v>
+        <v>0.974307833298778</v>
       </c>
       <c r="D11">
-        <v>0.9903011069010293</v>
+        <v>0.9987121731294023</v>
       </c>
       <c r="E11">
-        <v>0.9810488127480474</v>
+        <v>0.9904246560362056</v>
       </c>
       <c r="F11">
-        <v>0.9799029696499233</v>
+        <v>0.9896195720636703</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031979738324681</v>
+        <v>1.035889264629805</v>
       </c>
       <c r="J11">
-        <v>0.9952934842408937</v>
+        <v>1.004789921486665</v>
       </c>
       <c r="K11">
-        <v>1.005408277677607</v>
+        <v>1.013658416912853</v>
       </c>
       <c r="L11">
-        <v>0.9963371942548308</v>
+        <v>1.005529437056709</v>
       </c>
       <c r="M11">
-        <v>0.9952141061184921</v>
+        <v>1.004739939522228</v>
       </c>
       <c r="N11">
-        <v>0.9967069151502742</v>
+        <v>1.006216838426191</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9621748346677879</v>
+        <v>0.9729363566884502</v>
       </c>
       <c r="D12">
-        <v>0.9886880384158087</v>
+        <v>0.9977352290253669</v>
       </c>
       <c r="E12">
-        <v>0.9791458323202314</v>
+        <v>0.9892510059205123</v>
       </c>
       <c r="F12">
-        <v>0.9777724877956521</v>
+        <v>0.9882569364089143</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031403132589608</v>
+        <v>1.035582713019925</v>
       </c>
       <c r="J12">
-        <v>0.9936710098262932</v>
+        <v>1.003931965064237</v>
       </c>
       <c r="K12">
-        <v>1.004035214724324</v>
+        <v>1.012905947478728</v>
       </c>
       <c r="L12">
-        <v>0.9946837763180086</v>
+        <v>1.004587078353557</v>
       </c>
       <c r="M12">
-        <v>0.993338291623161</v>
+        <v>1.003612626935263</v>
       </c>
       <c r="N12">
-        <v>0.9950821366359044</v>
+        <v>1.005357663607234</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9626453085284256</v>
+        <v>0.9732313385300356</v>
       </c>
       <c r="D13">
-        <v>0.989035432068389</v>
+        <v>0.9979453142939446</v>
       </c>
       <c r="E13">
-        <v>0.9795556469900724</v>
+        <v>0.9895033669197162</v>
       </c>
       <c r="F13">
-        <v>0.9782312948221471</v>
+        <v>0.9885499365210569</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031527424847756</v>
+        <v>1.035648730044939</v>
       </c>
       <c r="J13">
-        <v>0.9940205026768908</v>
+        <v>1.004116504258643</v>
       </c>
       <c r="K13">
-        <v>1.00433100303546</v>
+        <v>1.013067818370223</v>
       </c>
       <c r="L13">
-        <v>0.9950399065282546</v>
+        <v>1.004789746863614</v>
       </c>
       <c r="M13">
-        <v>0.9937422981544679</v>
+        <v>1.003855055508287</v>
       </c>
       <c r="N13">
-        <v>0.9954321258064371</v>
+        <v>1.005542464868463</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9641793125327229</v>
+        <v>0.9741948236427478</v>
       </c>
       <c r="D14">
-        <v>0.9901683905032853</v>
+        <v>0.9986316554906294</v>
       </c>
       <c r="E14">
-        <v>0.9808922367073064</v>
+        <v>0.9903279151622829</v>
       </c>
       <c r="F14">
-        <v>0.9797276743837188</v>
+        <v>0.9895072549073036</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031932348613203</v>
+        <v>1.035864042153986</v>
       </c>
       <c r="J14">
-        <v>0.9951600268166266</v>
+        <v>1.004719229135974</v>
       </c>
       <c r="K14">
-        <v>1.005295345026282</v>
+        <v>1.013596425807805</v>
       </c>
       <c r="L14">
-        <v>0.996201178937746</v>
+        <v>1.005451779069652</v>
       </c>
       <c r="M14">
-        <v>0.9950597841636455</v>
+        <v>1.004647032134634</v>
       </c>
       <c r="N14">
-        <v>0.9965732682011568</v>
+        <v>1.006146045684253</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9651187687885638</v>
+        <v>0.9747861475859255</v>
       </c>
       <c r="D15">
-        <v>0.9908624347417315</v>
+        <v>0.9990529990511989</v>
       </c>
       <c r="E15">
-        <v>0.9817110702229516</v>
+        <v>0.990834176561031</v>
       </c>
       <c r="F15">
-        <v>0.9806444038395441</v>
+        <v>0.9900950272414099</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032180072193895</v>
+        <v>1.035995943635022</v>
       </c>
       <c r="J15">
-        <v>0.9958578811145793</v>
+        <v>1.005089120569929</v>
       </c>
       <c r="K15">
-        <v>1.005885855423981</v>
+        <v>1.013920769483694</v>
       </c>
       <c r="L15">
-        <v>0.9969124338265291</v>
+        <v>1.005858140082807</v>
       </c>
       <c r="M15">
-        <v>0.9958667920018544</v>
+        <v>1.005133204238191</v>
       </c>
       <c r="N15">
-        <v>0.9972721135322574</v>
+        <v>1.006516462406473</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9705028736551438</v>
+        <v>0.9781934052101846</v>
       </c>
       <c r="D16">
-        <v>0.9948428416116418</v>
+        <v>1.001482434355459</v>
       </c>
       <c r="E16">
-        <v>0.9864079387410958</v>
+        <v>0.9937543914106525</v>
       </c>
       <c r="F16">
-        <v>0.9859029163369721</v>
+        <v>0.9934853168542549</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033595775278997</v>
+        <v>1.036752238232971</v>
       </c>
       <c r="J16">
-        <v>0.9998570248306825</v>
+        <v>1.007220093065384</v>
       </c>
       <c r="K16">
-        <v>1.009268885054117</v>
+        <v>1.015788375268467</v>
       </c>
       <c r="L16">
-        <v>1.000989602696998</v>
+        <v>1.00820032301856</v>
       </c>
       <c r="M16">
-        <v>1.000494008022464</v>
+        <v>1.007936173741403</v>
       </c>
       <c r="N16">
-        <v>1.001276936491146</v>
+        <v>1.008650461127296</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9738093580794193</v>
+        <v>0.9803011241980235</v>
       </c>
       <c r="D17">
-        <v>0.9972895249861583</v>
+        <v>1.002986606781175</v>
       </c>
       <c r="E17">
-        <v>0.9892957993719537</v>
+        <v>0.9955634851602251</v>
       </c>
       <c r="F17">
-        <v>0.9891362458150247</v>
+        <v>0.9955855692392659</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034461566661303</v>
+        <v>1.037216751087884</v>
       </c>
       <c r="J17">
-        <v>1.002312589137005</v>
+        <v>1.008537930377723</v>
       </c>
       <c r="K17">
-        <v>1.011345246140749</v>
+        <v>1.016942471825954</v>
       </c>
       <c r="L17">
-        <v>1.00349415169761</v>
+        <v>1.009649752297498</v>
       </c>
       <c r="M17">
-        <v>1.003337475542231</v>
+        <v>1.009671444683475</v>
       </c>
       <c r="N17">
-        <v>1.003735987980441</v>
+        <v>1.009970169919777</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9757136177251675</v>
+        <v>0.981520182993292</v>
       </c>
       <c r="D18">
-        <v>0.9986993413335618</v>
+        <v>1.003857032235659</v>
       </c>
       <c r="E18">
-        <v>0.9909601458578216</v>
+        <v>0.9966107602539696</v>
       </c>
       <c r="F18">
-        <v>0.9909997644046702</v>
+        <v>0.9968013853938238</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034958851436277</v>
+        <v>1.037484196369207</v>
       </c>
       <c r="J18">
-        <v>1.003726609024836</v>
+        <v>1.009299984798005</v>
       </c>
       <c r="K18">
-        <v>1.012540563672006</v>
+        <v>1.017609518758739</v>
       </c>
       <c r="L18">
-        <v>1.004936764971552</v>
+        <v>1.010488253971521</v>
       </c>
       <c r="M18">
-        <v>1.004975683410335</v>
+        <v>1.010675560456242</v>
       </c>
       <c r="N18">
-        <v>1.005152015938702</v>
+        <v>1.010733306544744</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9763588947065224</v>
+        <v>0.9819341260460351</v>
       </c>
       <c r="D19">
-        <v>0.9991771885418455</v>
+        <v>1.00415266579665</v>
       </c>
       <c r="E19">
-        <v>0.991524321304701</v>
+        <v>0.9969665290231696</v>
       </c>
       <c r="F19">
-        <v>0.9916314681316182</v>
+        <v>0.9972144085346414</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035127130745608</v>
+        <v>1.037574801287294</v>
       </c>
       <c r="J19">
-        <v>1.004205729119961</v>
+        <v>1.009558719790051</v>
       </c>
       <c r="K19">
-        <v>1.012945520133477</v>
+        <v>1.0178359409167</v>
       </c>
       <c r="L19">
-        <v>1.005425638897827</v>
+        <v>1.010773004559931</v>
       </c>
       <c r="M19">
-        <v>1.005530905445357</v>
+        <v>1.011016596130429</v>
       </c>
       <c r="N19">
-        <v>1.005631816439319</v>
+        <v>1.010992408970156</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9734571482166946</v>
+        <v>0.9800760621660921</v>
       </c>
       <c r="D20">
-        <v>0.9970288243892251</v>
+        <v>1.002825944468374</v>
       </c>
       <c r="E20">
-        <v>0.9889880580113564</v>
+        <v>0.9953702128265572</v>
       </c>
       <c r="F20">
-        <v>0.988791683138847</v>
+        <v>0.9953611925221778</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034369480099755</v>
+        <v>1.03716727646816</v>
       </c>
       <c r="J20">
-        <v>1.002051037971787</v>
+        <v>1.008397227399294</v>
       </c>
       <c r="K20">
-        <v>1.01112412031183</v>
+        <v>1.016819284393151</v>
       </c>
       <c r="L20">
-        <v>1.003227342861632</v>
+        <v>1.009494962932322</v>
       </c>
       <c r="M20">
-        <v>1.003034522643143</v>
+        <v>1.009486103161881</v>
       </c>
       <c r="N20">
-        <v>1.003474065382567</v>
+        <v>1.009829267126979</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9637287802593468</v>
+        <v>0.9739115846468216</v>
       </c>
       <c r="D21">
-        <v>0.9898356025044242</v>
+        <v>0.9984298657718202</v>
       </c>
       <c r="E21">
-        <v>0.9804996259986333</v>
+        <v>0.9900854764020551</v>
       </c>
       <c r="F21">
-        <v>0.9792881261734058</v>
+        <v>0.9892257800124395</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031813477893321</v>
+        <v>1.035800796714619</v>
       </c>
       <c r="J21">
-        <v>0.994825354777348</v>
+        <v>1.00454204843871</v>
       </c>
       <c r="K21">
-        <v>1.005012135631043</v>
+        <v>1.013441046009875</v>
       </c>
       <c r="L21">
-        <v>0.9958601024557572</v>
+        <v>1.005257148849217</v>
       </c>
       <c r="M21">
-        <v>0.9946728105853889</v>
+        <v>1.00441418925009</v>
       </c>
       <c r="N21">
-        <v>0.9962381208891951</v>
+        <v>1.005968613370077</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.957366542895025</v>
+        <v>0.9699356350654038</v>
       </c>
       <c r="D22">
-        <v>0.9851398806874258</v>
+        <v>0.9955993723281916</v>
       </c>
       <c r="E22">
-        <v>0.9749605295058906</v>
+        <v>0.9866860700913243</v>
       </c>
       <c r="F22">
-        <v>0.9730868430138542</v>
+        <v>0.9852788462629768</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030130195126651</v>
+        <v>1.0349086504531</v>
       </c>
       <c r="J22">
-        <v>0.9900991008365927</v>
+        <v>1.002054542513484</v>
       </c>
       <c r="K22">
-        <v>1.001011581349999</v>
+        <v>1.01125851350661</v>
       </c>
       <c r="L22">
-        <v>0.9910448957683671</v>
+        <v>1.002525974357584</v>
       </c>
       <c r="M22">
-        <v>0.9892109964648705</v>
+        <v>1.001147683800465</v>
       </c>
       <c r="N22">
-        <v>0.9915051551257346</v>
+        <v>1.003477574901115</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9607639438871503</v>
+        <v>0.9720532031231774</v>
       </c>
       <c r="D23">
-        <v>0.9876464804615028</v>
+        <v>0.9971063794090439</v>
       </c>
       <c r="E23">
-        <v>0.9779171687989816</v>
+        <v>0.9884956902423233</v>
       </c>
       <c r="F23">
-        <v>0.9763969421636393</v>
+        <v>0.9873799773524485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031030111506171</v>
+        <v>1.035384795884606</v>
       </c>
       <c r="J23">
-        <v>0.9926229161842642</v>
+        <v>1.003379447321205</v>
       </c>
       <c r="K23">
-        <v>1.003148110565645</v>
+        <v>1.012421232013149</v>
       </c>
       <c r="L23">
-        <v>0.9936158692980571</v>
+        <v>1.003980361369334</v>
       </c>
       <c r="M23">
-        <v>0.992126903640735</v>
+        <v>1.002886937515461</v>
       </c>
       <c r="N23">
-        <v>0.994032554580686</v>
+        <v>1.004804361225632</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9736163716875961</v>
+        <v>0.9801777898851108</v>
       </c>
       <c r="D24">
-        <v>0.9971466770254661</v>
+        <v>1.00289856223437</v>
       </c>
       <c r="E24">
-        <v>0.989127174960283</v>
+        <v>0.995457568753789</v>
       </c>
       <c r="F24">
-        <v>0.9889474452376524</v>
+        <v>0.9954626071467558</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034411113829459</v>
+        <v>1.037189642711059</v>
       </c>
       <c r="J24">
-        <v>1.002169277947076</v>
+        <v>1.008460825427986</v>
       </c>
       <c r="K24">
-        <v>1.011224086185166</v>
+        <v>1.01687496636274</v>
       </c>
       <c r="L24">
-        <v>1.003347958484278</v>
+        <v>1.009564926941747</v>
       </c>
       <c r="M24">
-        <v>1.003171476647147</v>
+        <v>1.009569875804487</v>
       </c>
       <c r="N24">
-        <v>1.003592473272184</v>
+        <v>1.009892955472167</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9875847865796744</v>
+        <v>0.9892032948091329</v>
       </c>
       <c r="D25">
-        <v>1.007499012650501</v>
+        <v>1.009349818157058</v>
       </c>
       <c r="E25">
-        <v>1.00135510850289</v>
+        <v>1.003227202820798</v>
       </c>
       <c r="F25">
-        <v>1.002640419141891</v>
+        <v>1.00448278030024</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038034289749044</v>
+        <v>1.03914750089982</v>
       </c>
       <c r="J25">
-        <v>1.012537319810892</v>
+        <v>1.014099555530819</v>
       </c>
       <c r="K25">
-        <v>1.019982020888888</v>
+        <v>1.021804703624244</v>
       </c>
       <c r="L25">
-        <v>1.013932424516971</v>
+        <v>1.01577562634645</v>
       </c>
       <c r="M25">
-        <v>1.015197883821547</v>
+        <v>1.017011903185389</v>
       </c>
       <c r="N25">
-        <v>1.013975238944677</v>
+        <v>1.015539693218517</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9961101176679293</v>
+        <v>0.996924281215084</v>
       </c>
       <c r="D2">
-        <v>1.014296551143057</v>
+        <v>1.017677141270984</v>
       </c>
       <c r="E2">
-        <v>1.009199291223594</v>
+        <v>1.009994841801978</v>
       </c>
       <c r="F2">
-        <v>1.011417025901941</v>
+        <v>1.012229869988574</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04060593530576</v>
+        <v>1.042055079458863</v>
       </c>
       <c r="J2">
-        <v>1.018407800206756</v>
+        <v>1.019197377297803</v>
       </c>
       <c r="K2">
-        <v>1.025560241558646</v>
+        <v>1.028895578421189</v>
       </c>
       <c r="L2">
-        <v>1.020531935935054</v>
+        <v>1.021316666853334</v>
       </c>
       <c r="M2">
-        <v>1.02271956228934</v>
+        <v>1.023521412623123</v>
       </c>
       <c r="N2">
-        <v>1.019854056096055</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010305190913625</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031501833464761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000970387370037</v>
+        <v>1.000742734925302</v>
       </c>
       <c r="D3">
-        <v>1.017781612154617</v>
+        <v>1.020092159983963</v>
       </c>
       <c r="E3">
-        <v>1.013416012164916</v>
+        <v>1.013280016091575</v>
       </c>
       <c r="F3">
-        <v>1.016314158065783</v>
+        <v>1.016151237303728</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041608174159004</v>
+        <v>1.042612624239169</v>
       </c>
       <c r="J3">
-        <v>1.021434633557929</v>
+        <v>1.021213172695935</v>
       </c>
       <c r="K3">
-        <v>1.028191919086158</v>
+        <v>1.030474253719574</v>
       </c>
       <c r="L3">
-        <v>1.023880062895338</v>
+        <v>1.023745750295596</v>
       </c>
       <c r="M3">
-        <v>1.026742466364904</v>
+        <v>1.02658154815311</v>
       </c>
       <c r="N3">
-        <v>1.022885187897771</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010987962497284</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032615425287581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004048120404158</v>
+        <v>1.003170730943672</v>
       </c>
       <c r="D4">
-        <v>1.019989897388175</v>
+        <v>1.021630828295401</v>
       </c>
       <c r="E4">
-        <v>1.016092496608152</v>
+        <v>1.015374907157043</v>
       </c>
       <c r="F4">
-        <v>1.019423170759829</v>
+        <v>1.018651831345452</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042231382298879</v>
+        <v>1.042957124745777</v>
       </c>
       <c r="J4">
-        <v>1.02334883865305</v>
+        <v>1.022493675395402</v>
       </c>
       <c r="K4">
-        <v>1.029852902940422</v>
+        <v>1.031475013853588</v>
       </c>
       <c r="L4">
-        <v>1.026000502918526</v>
+        <v>1.025291245558162</v>
       </c>
       <c r="M4">
-        <v>1.029292693535303</v>
+        <v>1.028530238733803</v>
       </c>
       <c r="N4">
-        <v>1.02480211138369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011421554144434</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.033323965740505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00532652591964</v>
+        <v>1.004184176886995</v>
       </c>
       <c r="D5">
-        <v>1.020907421900299</v>
+        <v>1.022275835083715</v>
       </c>
       <c r="E5">
-        <v>1.017205697728704</v>
+        <v>1.016250882661399</v>
       </c>
       <c r="F5">
-        <v>1.020716447342076</v>
+        <v>1.019697089455878</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042487450085346</v>
+        <v>1.043099780037851</v>
       </c>
       <c r="J5">
-        <v>1.024143303132975</v>
+        <v>1.023029016453444</v>
       </c>
       <c r="K5">
-        <v>1.030541452014843</v>
+        <v>1.031894591316775</v>
       </c>
       <c r="L5">
-        <v>1.026881299259925</v>
+        <v>1.025937267584861</v>
       </c>
       <c r="M5">
-        <v>1.030352613074735</v>
+        <v>1.029344671057749</v>
       </c>
       <c r="N5">
-        <v>1.025597704094303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011603018774698</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.033627880185651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005540285619656</v>
+        <v>1.004356985912126</v>
       </c>
       <c r="D6">
-        <v>1.021060852878414</v>
+        <v>1.022388383103544</v>
       </c>
       <c r="E6">
-        <v>1.017391918751687</v>
+        <v>1.01640052379603</v>
       </c>
       <c r="F6">
-        <v>1.020932803303284</v>
+        <v>1.01987518400521</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042530100958197</v>
+        <v>1.043125547831586</v>
       </c>
       <c r="J6">
-        <v>1.024276105026942</v>
+        <v>1.023121722382444</v>
       </c>
       <c r="K6">
-        <v>1.030656500359392</v>
+        <v>1.03196928127734</v>
       </c>
       <c r="L6">
-        <v>1.02702857581423</v>
+        <v>1.026048324774949</v>
       </c>
       <c r="M6">
-        <v>1.030529875953442</v>
+        <v>1.029484044611501</v>
       </c>
       <c r="N6">
-        <v>1.025730694582192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011634716511635</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.033689512866676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004065262536044</v>
+        <v>1.003192962552177</v>
       </c>
       <c r="D7">
-        <v>1.02000219951865</v>
+        <v>1.021651723952411</v>
       </c>
       <c r="E7">
-        <v>1.016107417788256</v>
+        <v>1.015394635870989</v>
       </c>
       <c r="F7">
-        <v>1.019440504909298</v>
+        <v>1.018674118558456</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042234827018677</v>
+        <v>1.042964516447048</v>
       </c>
       <c r="J7">
-        <v>1.023359494216853</v>
+        <v>1.022509282254874</v>
       </c>
       <c r="K7">
-        <v>1.029862141207927</v>
+        <v>1.031492754170332</v>
       </c>
       <c r="L7">
-        <v>1.02601231346667</v>
+        <v>1.025307804699672</v>
       </c>
       <c r="M7">
-        <v>1.029306903563284</v>
+        <v>1.028549341397982</v>
       </c>
       <c r="N7">
-        <v>1.024812782079615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011427594733305</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033356796672284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.997766958559577</v>
+        <v>0.998234573135648</v>
       </c>
       <c r="D8">
-        <v>1.015484253896762</v>
+        <v>1.018513488328618</v>
       </c>
       <c r="E8">
-        <v>1.010635406583638</v>
+        <v>1.011121578300259</v>
       </c>
       <c r="F8">
-        <v>1.013084751180504</v>
+        <v>1.013573246276063</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040949967111241</v>
+        <v>1.042253670555936</v>
       </c>
       <c r="J8">
-        <v>1.019440135496081</v>
+        <v>1.01989411091055</v>
       </c>
       <c r="K8">
-        <v>1.0264584877857</v>
+        <v>1.0294483888291</v>
       </c>
       <c r="L8">
-        <v>1.021673216208675</v>
+        <v>1.02215297899131</v>
       </c>
       <c r="M8">
-        <v>1.02409035086118</v>
+        <v>1.024572445366557</v>
       </c>
       <c r="N8">
-        <v>1.020887857419903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010542192239657</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031915843918035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9861247356981836</v>
+        <v>0.9891407287633815</v>
       </c>
       <c r="D9">
-        <v>1.007147531477875</v>
+        <v>1.012773648672181</v>
       </c>
       <c r="E9">
-        <v>1.000572706114379</v>
+        <v>1.003332504317224</v>
       </c>
       <c r="F9">
-        <v>1.001400962707624</v>
+        <v>1.00427645514506</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038485839601695</v>
+        <v>1.040865612957864</v>
       </c>
       <c r="J9">
-        <v>1.012177162750345</v>
+        <v>1.015082871021652</v>
       </c>
       <c r="K9">
-        <v>1.020125699680899</v>
+        <v>1.025662826930234</v>
       </c>
       <c r="L9">
-        <v>1.013656498390136</v>
+        <v>1.016371744363731</v>
       </c>
       <c r="M9">
-        <v>1.014471351089007</v>
+        <v>1.017300528799249</v>
       </c>
       <c r="N9">
-        <v>1.013614570419793</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008911095238693</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029235942824459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.977953791335349</v>
+        <v>0.9828286223008893</v>
       </c>
       <c r="D10">
-        <v>1.001311497205708</v>
+        <v>1.008813122959007</v>
       </c>
       <c r="E10">
-        <v>0.993548855508222</v>
+        <v>0.9979613427752517</v>
       </c>
       <c r="F10">
-        <v>0.9932466996108609</v>
+        <v>0.9978633294028634</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036699265818673</v>
+        <v>1.039853483688152</v>
       </c>
       <c r="J10">
-        <v>1.007070256430205</v>
+        <v>1.011740485905828</v>
       </c>
       <c r="K10">
-        <v>1.015657112471406</v>
+        <v>1.023025056297326</v>
       </c>
       <c r="L10">
-        <v>1.008035572511218</v>
+        <v>1.012367503624719</v>
       </c>
       <c r="M10">
-        <v>1.007738967004659</v>
+        <v>1.012271269559421</v>
       </c>
       <c r="N10">
-        <v>1.008500411706909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007777877894485</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.027387824159933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.974307833298778</v>
+        <v>0.9800412681502758</v>
       </c>
       <c r="D11">
-        <v>0.9987121731294023</v>
+        <v>1.007077990391873</v>
       </c>
       <c r="E11">
-        <v>0.9904246560362056</v>
+        <v>0.9955991950679558</v>
       </c>
       <c r="F11">
-        <v>0.9896195720636703</v>
+        <v>0.9950406079020603</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035889264629805</v>
+        <v>1.039400144067224</v>
       </c>
       <c r="J11">
-        <v>1.004789921486665</v>
+        <v>1.010268588577322</v>
       </c>
       <c r="K11">
-        <v>1.013658416912853</v>
+        <v>1.021867649308449</v>
       </c>
       <c r="L11">
-        <v>1.005529437056709</v>
+        <v>1.010604584083619</v>
       </c>
       <c r="M11">
-        <v>1.004739939522228</v>
+        <v>1.010056661073981</v>
       </c>
       <c r="N11">
-        <v>1.006216838426191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007279954277171</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026602678105624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9729363566884502</v>
+        <v>0.9789896624765922</v>
       </c>
       <c r="D12">
-        <v>0.9977352290253669</v>
+        <v>1.006419826611238</v>
       </c>
       <c r="E12">
-        <v>0.9892510059205123</v>
+        <v>0.9947088759912137</v>
       </c>
       <c r="F12">
-        <v>0.9882569364089143</v>
+        <v>0.9939774405964175</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035582713019925</v>
+        <v>1.039224716190344</v>
       </c>
       <c r="J12">
-        <v>1.003931965064237</v>
+        <v>1.009710624835828</v>
       </c>
       <c r="K12">
-        <v>1.012905947478728</v>
+        <v>1.021425057816356</v>
       </c>
       <c r="L12">
-        <v>1.004587078353557</v>
+        <v>1.009938152526776</v>
       </c>
       <c r="M12">
-        <v>1.003612626935263</v>
+        <v>1.009220940123217</v>
       </c>
       <c r="N12">
-        <v>1.005357663607234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007090567880646</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026289744820422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9732313385300356</v>
+        <v>0.9792145178976872</v>
       </c>
       <c r="D13">
-        <v>0.9979453142939446</v>
+        <v>1.006559641282695</v>
       </c>
       <c r="E13">
-        <v>0.9895033669197162</v>
+        <v>0.9948990816680581</v>
       </c>
       <c r="F13">
-        <v>0.9885499365210569</v>
+        <v>0.9942047533639415</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035648730044939</v>
+        <v>1.039261769267552</v>
       </c>
       <c r="J13">
-        <v>1.004116504258643</v>
+        <v>1.009829425415956</v>
       </c>
       <c r="K13">
-        <v>1.013067818370223</v>
+        <v>1.021518623291187</v>
       </c>
       <c r="L13">
-        <v>1.004789746863614</v>
+        <v>1.010080299236892</v>
       </c>
       <c r="M13">
-        <v>1.003855055508287</v>
+        <v>1.009399419504205</v>
       </c>
       <c r="N13">
-        <v>1.005542464868463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007130766388763</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026353378090379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9741948236427478</v>
+        <v>0.9799540465131391</v>
       </c>
       <c r="D14">
-        <v>0.9986316554906294</v>
+        <v>1.007023009239564</v>
       </c>
       <c r="E14">
-        <v>0.9903279151622829</v>
+        <v>0.9955252797512619</v>
       </c>
       <c r="F14">
-        <v>0.9895072549073036</v>
+        <v>0.9949524195742968</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035864042153986</v>
+        <v>1.03938540023776</v>
       </c>
       <c r="J14">
-        <v>1.004719229135974</v>
+        <v>1.010222095054792</v>
       </c>
       <c r="K14">
-        <v>1.013596425807805</v>
+        <v>1.021830482926214</v>
       </c>
       <c r="L14">
-        <v>1.005451779069652</v>
+        <v>1.01054915937847</v>
       </c>
       <c r="M14">
-        <v>1.004647032134634</v>
+        <v>1.00998725256041</v>
       </c>
       <c r="N14">
-        <v>1.006146045684253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007264119995892</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.02657531933678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9747861475859255</v>
+        <v>0.9804106785442206</v>
       </c>
       <c r="D15">
-        <v>0.9990529990511989</v>
+        <v>1.007310982861431</v>
       </c>
       <c r="E15">
-        <v>0.990834176561031</v>
+        <v>0.9959123152657745</v>
       </c>
       <c r="F15">
-        <v>0.9900950272414099</v>
+        <v>0.9954141679715729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035995943635022</v>
+        <v>1.039462576519508</v>
       </c>
       <c r="J15">
-        <v>1.005089120569929</v>
+        <v>1.010465553407897</v>
       </c>
       <c r="K15">
-        <v>1.013920769483694</v>
+        <v>1.022025160431454</v>
       </c>
       <c r="L15">
-        <v>1.005858140082807</v>
+        <v>1.010839374367053</v>
       </c>
       <c r="M15">
-        <v>1.005133204238191</v>
+        <v>1.010350675862662</v>
       </c>
       <c r="N15">
-        <v>1.006516462406473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007347046533026</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026718905743664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9781934052101846</v>
+        <v>0.9830325276788953</v>
       </c>
       <c r="D16">
-        <v>1.001482434355459</v>
+        <v>1.008955290385222</v>
       </c>
       <c r="E16">
-        <v>0.9937543914106525</v>
+        <v>0.9981360189914298</v>
       </c>
       <c r="F16">
-        <v>0.9934853168542549</v>
+        <v>0.9980690639448829</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036752238232971</v>
+        <v>1.03989562896523</v>
       </c>
       <c r="J16">
-        <v>1.007220093065384</v>
+        <v>1.011856896962612</v>
       </c>
       <c r="K16">
-        <v>1.015788375268467</v>
+        <v>1.023128506738488</v>
       </c>
       <c r="L16">
-        <v>1.00820032301856</v>
+        <v>1.012502232971471</v>
       </c>
       <c r="M16">
-        <v>1.007936173741403</v>
+        <v>1.012436489231056</v>
       </c>
       <c r="N16">
-        <v>1.008650461127296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007819373043386</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027502230471226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9803011241980235</v>
+        <v>0.98465925572054</v>
       </c>
       <c r="D17">
-        <v>1.002986606781175</v>
+        <v>1.009977045066903</v>
       </c>
       <c r="E17">
-        <v>0.9955634851602251</v>
+        <v>0.9995180675075824</v>
       </c>
       <c r="F17">
-        <v>0.9955855692392659</v>
+        <v>0.9997189005517393</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037216751087884</v>
+        <v>1.04016131854503</v>
       </c>
       <c r="J17">
-        <v>1.008537930377723</v>
+        <v>1.012719993918167</v>
       </c>
       <c r="K17">
-        <v>1.016942471825954</v>
+        <v>1.023812373094785</v>
       </c>
       <c r="L17">
-        <v>1.009649752297498</v>
+        <v>1.01353455202594</v>
       </c>
       <c r="M17">
-        <v>1.009671444683475</v>
+        <v>1.013731860255328</v>
       </c>
       <c r="N17">
-        <v>1.009970169919777</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008112347477065</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027988375126261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.981520182993292</v>
+        <v>0.9855955594589726</v>
       </c>
       <c r="D18">
-        <v>1.003857032235659</v>
+        <v>1.01056102784273</v>
       </c>
       <c r="E18">
-        <v>0.9966107602539696</v>
+        <v>1.000313868817224</v>
       </c>
       <c r="F18">
-        <v>0.9968013853938238</v>
+        <v>1.000669744327131</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037484196369207</v>
+        <v>1.040310307573513</v>
       </c>
       <c r="J18">
-        <v>1.009299984798005</v>
+        <v>1.013214015722608</v>
       </c>
       <c r="K18">
-        <v>1.017609518758739</v>
+        <v>1.024199920676083</v>
       </c>
       <c r="L18">
-        <v>1.010488253971521</v>
+        <v>1.014127186675066</v>
       </c>
       <c r="M18">
-        <v>1.010675560456242</v>
+        <v>1.014476927117296</v>
       </c>
       <c r="N18">
-        <v>1.010733306544744</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008279395343885</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028250623026925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9819341260460351</v>
+        <v>0.9859185886151698</v>
       </c>
       <c r="D19">
-        <v>1.00415266579665</v>
+        <v>1.010766199748582</v>
       </c>
       <c r="E19">
-        <v>0.9969665290231696</v>
+        <v>1.00058895077672</v>
       </c>
       <c r="F19">
-        <v>0.9972144085346414</v>
+        <v>1.000997701433233</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037574801287294</v>
+        <v>1.040363735227211</v>
       </c>
       <c r="J19">
-        <v>1.009558719790051</v>
+        <v>1.013386529106388</v>
       </c>
       <c r="K19">
-        <v>1.0178359409167</v>
+        <v>1.024338085906092</v>
       </c>
       <c r="L19">
-        <v>1.010773004559931</v>
+        <v>1.014333037011061</v>
       </c>
       <c r="M19">
-        <v>1.011016596130429</v>
+        <v>1.014734784352835</v>
       </c>
       <c r="N19">
-        <v>1.010992408970156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008338223777955</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028354775536568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9800760621660921</v>
+        <v>0.9844848920042234</v>
       </c>
       <c r="D20">
-        <v>1.002825944468374</v>
+        <v>1.009867110429062</v>
       </c>
       <c r="E20">
-        <v>0.9953702128265572</v>
+        <v>0.9993698043213385</v>
       </c>
       <c r="F20">
-        <v>0.9953611925221778</v>
+        <v>0.9995419872632614</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03716727646816</v>
+        <v>1.040132732717455</v>
       </c>
       <c r="J20">
-        <v>1.008397227399294</v>
+        <v>1.012627279907553</v>
       </c>
       <c r="K20">
-        <v>1.016819284393151</v>
+        <v>1.023738649485879</v>
       </c>
       <c r="L20">
-        <v>1.009494962932322</v>
+        <v>1.013423744019106</v>
       </c>
       <c r="M20">
-        <v>1.009486103161881</v>
+        <v>1.013592895056671</v>
       </c>
       <c r="N20">
-        <v>1.009829267126979</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008080827365956</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027934898583055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,81 +1326,93 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9739115846468216</v>
+        <v>0.9797432525593128</v>
       </c>
       <c r="D21">
-        <v>0.9984298657718202</v>
+        <v>1.006895800272074</v>
       </c>
       <c r="E21">
-        <v>0.9900854764020551</v>
+        <v>0.9953473165716525</v>
       </c>
       <c r="F21">
-        <v>0.9892257800124395</v>
+        <v>0.9947389649375358</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035800796714619</v>
+        <v>1.039353191459349</v>
       </c>
       <c r="J21">
-        <v>1.00454204843871</v>
+        <v>1.010113011852632</v>
       </c>
       <c r="K21">
-        <v>1.013441046009875</v>
+        <v>1.021747696799522</v>
       </c>
       <c r="L21">
-        <v>1.005257148849217</v>
+        <v>1.010417374870313</v>
       </c>
       <c r="M21">
-        <v>1.00441418925009</v>
+        <v>1.009820699474393</v>
       </c>
       <c r="N21">
-        <v>1.005968613370077</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007227777950251</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.0265304551006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9699356350654038</v>
+        <v>0.9766935877877839</v>
       </c>
       <c r="D22">
-        <v>0.9955993723281916</v>
+        <v>1.004983969177786</v>
       </c>
       <c r="E22">
-        <v>0.9866860700913243</v>
+        <v>0.9927674413059966</v>
       </c>
       <c r="F22">
-        <v>0.9852788462629768</v>
+        <v>0.9916589385851412</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0349086504531</v>
+        <v>1.038838302040258</v>
       </c>
       <c r="J22">
-        <v>1.002054542513484</v>
+        <v>1.008491934778836</v>
       </c>
       <c r="K22">
-        <v>1.01125851350661</v>
+        <v>1.020457335044864</v>
       </c>
       <c r="L22">
-        <v>1.002525974357584</v>
+        <v>1.00848355120851</v>
       </c>
       <c r="M22">
-        <v>1.001147683800465</v>
+        <v>1.007397464476342</v>
       </c>
       <c r="N22">
-        <v>1.003477574901115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006676813002978</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025604435995161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9720532031231774</v>
+        <v>0.9783081198074113</v>
       </c>
       <c r="D23">
-        <v>0.9971063794090439</v>
+        <v>1.005989738213071</v>
       </c>
       <c r="E23">
-        <v>0.9884956902423233</v>
+        <v>0.994131810896567</v>
       </c>
       <c r="F23">
-        <v>0.9873799773524485</v>
+        <v>0.9932890621895414</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035384795884606</v>
+        <v>1.03910823337432</v>
       </c>
       <c r="J23">
-        <v>1.003379447321205</v>
+        <v>1.009346784217123</v>
       </c>
       <c r="K23">
-        <v>1.012421232013149</v>
+        <v>1.021133379653421</v>
       </c>
       <c r="L23">
-        <v>1.003980361369334</v>
+        <v>1.009504890829076</v>
       </c>
       <c r="M23">
-        <v>1.002886937515461</v>
+        <v>1.00867872222001</v>
       </c>
       <c r="N23">
-        <v>1.004804361225632</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.0069665172964</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026072693214918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9801777898851108</v>
+        <v>0.9845505483092992</v>
       </c>
       <c r="D24">
-        <v>1.00289856223437</v>
+        <v>1.009898780584298</v>
       </c>
       <c r="E24">
-        <v>0.995457568753789</v>
+        <v>0.9994245780133554</v>
       </c>
       <c r="F24">
-        <v>0.9954626071467558</v>
+        <v>0.9996092556317622</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037189642711059</v>
+        <v>1.040137536203997</v>
       </c>
       <c r="J24">
-        <v>1.008460825427986</v>
+        <v>1.012656562319884</v>
       </c>
       <c r="K24">
-        <v>1.01687496636274</v>
+        <v>1.023754264263746</v>
       </c>
       <c r="L24">
-        <v>1.009564926941747</v>
+        <v>1.013461806247664</v>
       </c>
       <c r="M24">
-        <v>1.009569875804487</v>
+        <v>1.01364323665556</v>
       </c>
       <c r="N24">
-        <v>1.009892955472167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008089445763804</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027918239165698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9892032948091329</v>
+        <v>0.9915482352166737</v>
       </c>
       <c r="D25">
-        <v>1.009349818157058</v>
+        <v>1.014300117346637</v>
       </c>
       <c r="E25">
-        <v>1.003227202820798</v>
+        <v>1.005389662421209</v>
       </c>
       <c r="F25">
-        <v>1.00448278030024</v>
+        <v>1.00673004089782</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03914750089982</v>
+        <v>1.041248359203756</v>
       </c>
       <c r="J25">
-        <v>1.014099555530819</v>
+        <v>1.016363421573416</v>
       </c>
       <c r="K25">
-        <v>1.021804703624244</v>
+        <v>1.026680425402042</v>
       </c>
       <c r="L25">
-        <v>1.01577562634645</v>
+        <v>1.017904883035519</v>
       </c>
       <c r="M25">
-        <v>1.017011903185389</v>
+        <v>1.019224772344141</v>
       </c>
       <c r="N25">
-        <v>1.015539693218517</v>
+        <v>1.009346640169658</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029984334329831</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.996924281215084</v>
+        <v>0.9973383029683045</v>
       </c>
       <c r="D2">
-        <v>1.017677141270984</v>
+        <v>1.017821031041611</v>
       </c>
       <c r="E2">
-        <v>1.009994841801978</v>
+        <v>1.010365361631477</v>
       </c>
       <c r="F2">
-        <v>1.012229869988574</v>
+        <v>1.012617910660208</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042055079458863</v>
+        <v>1.042119366895538</v>
       </c>
       <c r="J2">
-        <v>1.019197377297803</v>
+        <v>1.019598917439231</v>
       </c>
       <c r="K2">
-        <v>1.028895578421189</v>
+        <v>1.029037550428699</v>
       </c>
       <c r="L2">
-        <v>1.021316666853334</v>
+        <v>1.021682154850393</v>
       </c>
       <c r="M2">
-        <v>1.023521412623123</v>
+        <v>1.023904212853408</v>
       </c>
       <c r="N2">
-        <v>1.010305190913625</v>
+        <v>1.012391161577805</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031501833464761</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031611077898724</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019864915606712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000742734925302</v>
+        <v>1.001018235939767</v>
       </c>
       <c r="D3">
-        <v>1.020092159983963</v>
+        <v>1.02006181903723</v>
       </c>
       <c r="E3">
-        <v>1.013280016091575</v>
+        <v>1.013527135660306</v>
       </c>
       <c r="F3">
-        <v>1.016151237303728</v>
+        <v>1.01640971892714</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.042612624239169</v>
+        <v>1.042604220352751</v>
       </c>
       <c r="J3">
-        <v>1.021213172695935</v>
+        <v>1.021481181252623</v>
       </c>
       <c r="K3">
-        <v>1.030474253719574</v>
+        <v>1.030444282225048</v>
       </c>
       <c r="L3">
-        <v>1.023745750295596</v>
+        <v>1.023989811228357</v>
       </c>
       <c r="M3">
-        <v>1.02658154815311</v>
+        <v>1.026836853005832</v>
       </c>
       <c r="N3">
-        <v>1.010987962497284</v>
+        <v>1.012898421879228</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032615425287581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032602810016057</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020139437870057</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003170730943672</v>
+        <v>1.003359180827409</v>
       </c>
       <c r="D4">
-        <v>1.021630828295401</v>
+        <v>1.021490355942703</v>
       </c>
       <c r="E4">
-        <v>1.015374907157043</v>
+        <v>1.015544403847194</v>
       </c>
       <c r="F4">
-        <v>1.018651831345452</v>
+        <v>1.018828915201391</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042957124745777</v>
+        <v>1.042902706226797</v>
       </c>
       <c r="J4">
-        <v>1.022493675395402</v>
+        <v>1.022677347001381</v>
       </c>
       <c r="K4">
-        <v>1.031475013853588</v>
+        <v>1.031336149671071</v>
       </c>
       <c r="L4">
-        <v>1.025291245558162</v>
+        <v>1.025458772871532</v>
       </c>
       <c r="M4">
-        <v>1.028530238733803</v>
+        <v>1.028705281393805</v>
       </c>
       <c r="N4">
-        <v>1.011421554144434</v>
+        <v>1.013220722683549</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033323965740505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033234433268558</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020311050599316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004184176886995</v>
+        <v>1.004336530087633</v>
       </c>
       <c r="D5">
-        <v>1.022275835083715</v>
+        <v>1.022089595926552</v>
       </c>
       <c r="E5">
-        <v>1.016250882661399</v>
+        <v>1.016388176557953</v>
       </c>
       <c r="F5">
-        <v>1.019697089455878</v>
+        <v>1.019840426500992</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043099780037851</v>
+        <v>1.043026220266271</v>
       </c>
       <c r="J5">
-        <v>1.023029016453444</v>
+        <v>1.023177622057371</v>
       </c>
       <c r="K5">
-        <v>1.031894591316775</v>
+        <v>1.031710427955429</v>
       </c>
       <c r="L5">
-        <v>1.025937267584861</v>
+        <v>1.026073009388761</v>
       </c>
       <c r="M5">
-        <v>1.029344671057749</v>
+        <v>1.029486401162347</v>
       </c>
       <c r="N5">
-        <v>1.011603018774698</v>
+        <v>1.013355683291618</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033627880185651</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033507026595456</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020382852960543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004356985912126</v>
+        <v>1.004503202491674</v>
       </c>
       <c r="D6">
-        <v>1.022388383103544</v>
+        <v>1.022194408709748</v>
       </c>
       <c r="E6">
-        <v>1.01640052379603</v>
+        <v>1.016532341576914</v>
       </c>
       <c r="F6">
-        <v>1.01987518400521</v>
+        <v>1.020012783768106</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.043125547831586</v>
+        <v>1.043048747091285</v>
       </c>
       <c r="J6">
-        <v>1.023121722382444</v>
+        <v>1.023264360808412</v>
       </c>
       <c r="K6">
-        <v>1.03196928127734</v>
+        <v>1.031777459065038</v>
       </c>
       <c r="L6">
-        <v>1.026048324774949</v>
+        <v>1.026178659296014</v>
       </c>
       <c r="M6">
-        <v>1.029484044611501</v>
+        <v>1.029620109020154</v>
       </c>
       <c r="N6">
-        <v>1.011634716511635</v>
+        <v>1.013379301261333</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033689512866676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033564111645541</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020396134871942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003192962552177</v>
+        <v>1.003388384641064</v>
       </c>
       <c r="D7">
-        <v>1.021651723952411</v>
+        <v>1.021515728330718</v>
       </c>
       <c r="E7">
-        <v>1.015394635870989</v>
+        <v>1.015570529905583</v>
       </c>
       <c r="F7">
-        <v>1.018674118558456</v>
+        <v>1.018857845894504</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042964516447048</v>
+        <v>1.042912059851798</v>
       </c>
       <c r="J7">
-        <v>1.022509282254874</v>
+        <v>1.022699751436564</v>
       </c>
       <c r="K7">
-        <v>1.031492754170332</v>
+        <v>1.031358314860541</v>
       </c>
       <c r="L7">
-        <v>1.025307804699672</v>
+        <v>1.025481655825102</v>
       </c>
       <c r="M7">
-        <v>1.028549341397982</v>
+        <v>1.028730951800295</v>
       </c>
       <c r="N7">
-        <v>1.011427594733305</v>
+        <v>1.013253241489732</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033356796672284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03327238993169</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02031703557671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.998234573135648</v>
+        <v>0.9986247699208516</v>
       </c>
       <c r="D8">
-        <v>1.018513488328618</v>
+        <v>1.018614154466626</v>
       </c>
       <c r="E8">
-        <v>1.011121578300259</v>
+        <v>1.011471504799777</v>
       </c>
       <c r="F8">
-        <v>1.013573246276063</v>
+        <v>1.013939417959558</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.042253670555936</v>
+        <v>1.042300259900688</v>
       </c>
       <c r="J8">
-        <v>1.01989411091055</v>
+        <v>1.020272940027303</v>
       </c>
       <c r="K8">
-        <v>1.0294483888291</v>
+        <v>1.029547752883634</v>
       </c>
       <c r="L8">
-        <v>1.02215297899131</v>
+        <v>1.022498297383387</v>
       </c>
       <c r="M8">
-        <v>1.024572445366557</v>
+        <v>1.024933824290301</v>
       </c>
       <c r="N8">
-        <v>1.010542192239657</v>
+        <v>1.012652288373805</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031915843918035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031997223869819</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019967989376255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9891407287633815</v>
+        <v>0.9898710076021502</v>
       </c>
       <c r="D9">
-        <v>1.012773648672181</v>
+        <v>1.013295766757499</v>
       </c>
       <c r="E9">
-        <v>1.003332504317224</v>
+        <v>1.003984979117065</v>
       </c>
       <c r="F9">
-        <v>1.00427645514506</v>
+        <v>1.004960925401441</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.040865612957864</v>
+        <v>1.041087698822384</v>
       </c>
       <c r="J9">
-        <v>1.015082871021652</v>
+        <v>1.015786587823535</v>
       </c>
       <c r="K9">
-        <v>1.025662826930234</v>
+        <v>1.026176750623093</v>
       </c>
       <c r="L9">
-        <v>1.016371744363731</v>
+        <v>1.017013731992436</v>
       </c>
       <c r="M9">
-        <v>1.017300528799249</v>
+        <v>1.017974024570883</v>
       </c>
       <c r="N9">
-        <v>1.008911095238693</v>
+        <v>1.011451847534932</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029235942824459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029610178401811</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019295351059035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9828286223008893</v>
+        <v>0.9838373662644393</v>
       </c>
       <c r="D10">
-        <v>1.008813122959007</v>
+        <v>1.009656757113931</v>
       </c>
       <c r="E10">
-        <v>0.9979613427752517</v>
+        <v>0.9988619155591085</v>
       </c>
       <c r="F10">
-        <v>0.9978633294028634</v>
+        <v>0.9988092070117587</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039853483688152</v>
+        <v>1.040209552488839</v>
       </c>
       <c r="J10">
-        <v>1.011740485905828</v>
+        <v>1.012707251856176</v>
       </c>
       <c r="K10">
-        <v>1.023025056297326</v>
+        <v>1.023853817647243</v>
       </c>
       <c r="L10">
-        <v>1.012367503624719</v>
+        <v>1.013251748920421</v>
       </c>
       <c r="M10">
-        <v>1.012271269559421</v>
+        <v>1.013199994930108</v>
       </c>
       <c r="N10">
-        <v>1.007777877894485</v>
+        <v>1.010738801470538</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027387824159933</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027986357128031</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018821850386006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9800412681502758</v>
+        <v>0.9812322586351478</v>
       </c>
       <c r="D11">
-        <v>1.007077990391873</v>
+        <v>1.008105403009455</v>
       </c>
       <c r="E11">
-        <v>0.9955991950679558</v>
+        <v>0.996663706019248</v>
       </c>
       <c r="F11">
-        <v>0.9950406079020603</v>
+        <v>0.996158752549661</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039400144067224</v>
+        <v>1.039833557333937</v>
       </c>
       <c r="J11">
-        <v>1.010268588577322</v>
+        <v>1.011407190572113</v>
       </c>
       <c r="K11">
-        <v>1.021867649308449</v>
+        <v>1.022876065161444</v>
       </c>
       <c r="L11">
-        <v>1.010604584083619</v>
+        <v>1.011648815420794</v>
       </c>
       <c r="M11">
-        <v>1.010056661073981</v>
+        <v>1.011153474569363</v>
       </c>
       <c r="N11">
-        <v>1.007279954277171</v>
+        <v>1.010618612411298</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026602678105624</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027331453078925</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018624517821393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9789896624765922</v>
+        <v>0.9802551673524337</v>
       </c>
       <c r="D12">
-        <v>1.006419826611238</v>
+        <v>1.007520674103281</v>
       </c>
       <c r="E12">
-        <v>0.9947088759912137</v>
+        <v>0.9958405679159337</v>
       </c>
       <c r="F12">
-        <v>0.9939774405964175</v>
+        <v>0.9951661563456176</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039224716190344</v>
+        <v>1.039689143944806</v>
       </c>
       <c r="J12">
-        <v>1.009710624835828</v>
+        <v>1.010919325942555</v>
       </c>
       <c r="K12">
-        <v>1.021425057816356</v>
+        <v>1.022505194448188</v>
       </c>
       <c r="L12">
-        <v>1.009938152526776</v>
+        <v>1.011047892303518</v>
       </c>
       <c r="M12">
-        <v>1.009220940123217</v>
+        <v>1.010386554843649</v>
       </c>
       <c r="N12">
-        <v>1.007090567880646</v>
+        <v>1.010589341295978</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026289744820422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027069235914333</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018548845588949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9792145178976872</v>
+        <v>0.9804638343953471</v>
       </c>
       <c r="D13">
-        <v>1.006559641282695</v>
+        <v>1.007644583466472</v>
       </c>
       <c r="E13">
-        <v>0.9948990816680581</v>
+        <v>0.9960161738142055</v>
       </c>
       <c r="F13">
-        <v>0.9942047533639415</v>
+        <v>0.9953781328790631</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039261769267552</v>
+        <v>1.039719483427545</v>
       </c>
       <c r="J13">
-        <v>1.009829425415956</v>
+        <v>1.011022906449922</v>
       </c>
       <c r="K13">
-        <v>1.021518623291187</v>
+        <v>1.022583229271075</v>
       </c>
       <c r="L13">
-        <v>1.010080299236892</v>
+        <v>1.011175805770441</v>
       </c>
       <c r="M13">
-        <v>1.009399419504205</v>
+        <v>1.010550085949268</v>
       </c>
       <c r="N13">
-        <v>1.007130766388763</v>
+        <v>1.010594550210129</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026353378090379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027121645167683</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018564623209501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9799540465131391</v>
+        <v>0.9811510996091318</v>
       </c>
       <c r="D14">
-        <v>1.007023009239564</v>
+        <v>1.008056419722992</v>
       </c>
       <c r="E14">
-        <v>0.9955252797512619</v>
+        <v>0.9965952544903925</v>
       </c>
       <c r="F14">
-        <v>0.9949524195742968</v>
+        <v>0.9960763038946046</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.03938540023776</v>
+        <v>1.039821348051745</v>
       </c>
       <c r="J14">
-        <v>1.010222095054792</v>
+        <v>1.011366404373799</v>
       </c>
       <c r="K14">
-        <v>1.021830482926214</v>
+        <v>1.0228447581428</v>
       </c>
       <c r="L14">
-        <v>1.01054915937847</v>
+        <v>1.011598719806921</v>
       </c>
       <c r="M14">
-        <v>1.00998725256041</v>
+        <v>1.011089663230957</v>
       </c>
       <c r="N14">
-        <v>1.007264119995892</v>
+        <v>1.010615709814658</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.02657531933678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027308134043062</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018618068096203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9804106785442206</v>
+        <v>0.981576223082361</v>
       </c>
       <c r="D15">
-        <v>1.007310982861431</v>
+        <v>1.008313163306181</v>
       </c>
       <c r="E15">
-        <v>0.9959123152657745</v>
+        <v>0.9969538994449153</v>
       </c>
       <c r="F15">
-        <v>0.9954141679715729</v>
+        <v>0.996508227432406</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.039462576519508</v>
+        <v>1.039885330042442</v>
       </c>
       <c r="J15">
-        <v>1.010465553407897</v>
+        <v>1.011580193673935</v>
       </c>
       <c r="K15">
-        <v>1.022025160431454</v>
+        <v>1.023008923971627</v>
       </c>
       <c r="L15">
-        <v>1.010839374367053</v>
+        <v>1.011861241797633</v>
       </c>
       <c r="M15">
-        <v>1.010350675862662</v>
+        <v>1.011423999573732</v>
       </c>
       <c r="N15">
-        <v>1.007347046533026</v>
+        <v>1.01063163037424</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026718905743664</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027430714189048</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018651901174045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9830325276788953</v>
+        <v>0.9840291455394116</v>
       </c>
       <c r="D16">
-        <v>1.008955290385222</v>
+        <v>1.009786619103157</v>
       </c>
       <c r="E16">
-        <v>0.9981360189914298</v>
+        <v>0.9990256841162075</v>
       </c>
       <c r="F16">
-        <v>0.9980690639448829</v>
+        <v>0.9990034818437642</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.03989562896523</v>
+        <v>1.040246433704027</v>
       </c>
       <c r="J16">
-        <v>1.011856896962612</v>
+        <v>1.012812198485114</v>
       </c>
       <c r="K16">
-        <v>1.023128506738488</v>
+        <v>1.023945227670662</v>
       </c>
       <c r="L16">
-        <v>1.012502232971471</v>
+        <v>1.013375822902886</v>
       </c>
       <c r="M16">
-        <v>1.012436489231056</v>
+        <v>1.013354021346308</v>
       </c>
       <c r="N16">
-        <v>1.007819373043386</v>
+        <v>1.010756135792825</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027502230471226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028096225541082</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.01884290643166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.98465925572054</v>
+        <v>0.9855629830200389</v>
       </c>
       <c r="D17">
-        <v>1.009977045066903</v>
+        <v>1.010710835844087</v>
       </c>
       <c r="E17">
-        <v>0.9995180675075824</v>
+        <v>1.000324432867213</v>
       </c>
       <c r="F17">
-        <v>0.9997189005517393</v>
+        <v>1.000565737746799</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04016131854503</v>
+        <v>1.040471183914462</v>
       </c>
       <c r="J17">
-        <v>1.012719993918167</v>
+        <v>1.013587486903299</v>
       </c>
       <c r="K17">
-        <v>1.023812373094785</v>
+        <v>1.024533635922009</v>
       </c>
       <c r="L17">
-        <v>1.01353455202594</v>
+        <v>1.014326775990484</v>
       </c>
       <c r="M17">
-        <v>1.013731860255328</v>
+        <v>1.014563854797164</v>
       </c>
       <c r="N17">
-        <v>1.008112347477065</v>
+        <v>1.010870719005841</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027988375126261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028515119946531</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.0189628868887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9855955594589726</v>
+        <v>0.986450427908578</v>
       </c>
       <c r="D18">
-        <v>1.01056102784273</v>
+        <v>1.011241824940177</v>
       </c>
       <c r="E18">
-        <v>1.000313868817224</v>
+        <v>1.001076516661388</v>
       </c>
       <c r="F18">
-        <v>1.000669744327131</v>
+        <v>1.001470593674325</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040310307573513</v>
+        <v>1.040598007361737</v>
       </c>
       <c r="J18">
-        <v>1.013214015722608</v>
+        <v>1.014035278829583</v>
       </c>
       <c r="K18">
-        <v>1.024199920676083</v>
+        <v>1.02486929082331</v>
       </c>
       <c r="L18">
-        <v>1.014127186675066</v>
+        <v>1.014876693862421</v>
       </c>
       <c r="M18">
-        <v>1.014476927117296</v>
+        <v>1.01526399094649</v>
       </c>
       <c r="N18">
-        <v>1.008279395343885</v>
+        <v>1.010949949503405</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028250623026925</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028739541108388</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019030531857393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9859185886151698</v>
+        <v>0.9867574296629904</v>
       </c>
       <c r="D19">
-        <v>1.010766199748582</v>
+        <v>1.011429360354641</v>
       </c>
       <c r="E19">
-        <v>1.00058895077672</v>
+        <v>1.00133727083651</v>
       </c>
       <c r="F19">
-        <v>1.000997701433233</v>
+        <v>1.001783475650549</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.040363735227211</v>
+        <v>1.040644047925593</v>
       </c>
       <c r="J19">
-        <v>1.013386529106388</v>
+        <v>1.014192618056982</v>
       </c>
       <c r="K19">
-        <v>1.024338085906092</v>
+        <v>1.024990180698961</v>
       </c>
       <c r="L19">
-        <v>1.014333037011061</v>
+        <v>1.015068541373742</v>
       </c>
       <c r="M19">
-        <v>1.014734784352835</v>
+        <v>1.015507116275072</v>
       </c>
       <c r="N19">
-        <v>1.008338223777955</v>
+        <v>1.010981078901768</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028354775536568</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028832099349642</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019055518805938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9844848920042234</v>
+        <v>0.9853980961832721</v>
       </c>
       <c r="D20">
-        <v>1.009867110429062</v>
+        <v>1.010611011943038</v>
       </c>
       <c r="E20">
-        <v>0.9993698043213385</v>
+        <v>1.000184658804773</v>
       </c>
       <c r="F20">
-        <v>0.9995419872632614</v>
+        <v>1.000397751960415</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040132732717455</v>
+        <v>1.040446838504018</v>
       </c>
       <c r="J20">
-        <v>1.012627279907553</v>
+        <v>1.01350373724485</v>
       </c>
       <c r="K20">
-        <v>1.023738649485879</v>
+        <v>1.024469810781069</v>
       </c>
       <c r="L20">
-        <v>1.013423744019106</v>
+        <v>1.01422426198712</v>
       </c>
       <c r="M20">
-        <v>1.013592895056671</v>
+        <v>1.014433610983406</v>
       </c>
       <c r="N20">
-        <v>1.008080827365956</v>
+        <v>1.010856797303538</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027934898583055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.028468513317649</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018949812352337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9797432525593128</v>
+        <v>0.9809748957319784</v>
       </c>
       <c r="D21">
-        <v>1.006895800272074</v>
+        <v>1.007957946111806</v>
       </c>
       <c r="E21">
-        <v>0.9953473165716525</v>
+        <v>0.9964488943033932</v>
       </c>
       <c r="F21">
-        <v>0.9947389649375358</v>
+        <v>0.9958958580152611</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039353191459349</v>
+        <v>1.039801490258742</v>
       </c>
       <c r="J21">
-        <v>1.010113011852632</v>
+        <v>1.011290161321436</v>
       </c>
       <c r="K21">
-        <v>1.021747696799522</v>
+        <v>1.022790105080761</v>
       </c>
       <c r="L21">
-        <v>1.010417374870313</v>
+        <v>1.011497857237165</v>
       </c>
       <c r="M21">
-        <v>1.009820699474393</v>
+        <v>1.010955404034773</v>
       </c>
       <c r="N21">
-        <v>1.007227777950251</v>
+        <v>1.010677787386318</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.0265304551006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027284471071836</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018608945968106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9766935877877839</v>
+        <v>0.9781303448496541</v>
       </c>
       <c r="D22">
-        <v>1.004983969177786</v>
+        <v>1.006251600565107</v>
       </c>
       <c r="E22">
-        <v>0.9927674413059966</v>
+        <v>0.9940538146187177</v>
       </c>
       <c r="F22">
-        <v>0.9916589385851412</v>
+        <v>0.9930101101986366</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038838302040258</v>
+        <v>1.039373319527466</v>
       </c>
       <c r="J22">
-        <v>1.008491934778836</v>
+        <v>1.009861360537102</v>
       </c>
       <c r="K22">
-        <v>1.020457335044864</v>
+        <v>1.021700221065597</v>
       </c>
       <c r="L22">
-        <v>1.00848355120851</v>
+        <v>1.00974399414882</v>
       </c>
       <c r="M22">
-        <v>1.007397464476342</v>
+        <v>1.008721321676175</v>
       </c>
       <c r="N22">
-        <v>1.006676813002978</v>
+        <v>1.010550080793264</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025604435995161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026498908716492</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018384315430726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9783081198074113</v>
+        <v>0.9796232393447394</v>
       </c>
       <c r="D23">
-        <v>1.005989738213071</v>
+        <v>1.007139103055767</v>
       </c>
       <c r="E23">
-        <v>0.994131810896567</v>
+        <v>0.9953082859938984</v>
       </c>
       <c r="F23">
-        <v>0.9932890621895414</v>
+        <v>0.9945248137040573</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.03910823337432</v>
+        <v>1.039593207865097</v>
       </c>
       <c r="J23">
-        <v>1.009346784217123</v>
+        <v>1.010602108761404</v>
       </c>
       <c r="K23">
-        <v>1.021133379653421</v>
+        <v>1.02226088105093</v>
       </c>
       <c r="L23">
-        <v>1.009504890829076</v>
+        <v>1.010658281770395</v>
       </c>
       <c r="M23">
-        <v>1.00867872222001</v>
+        <v>1.009890174374952</v>
       </c>
       <c r="N23">
-        <v>1.0069665172964</v>
+        <v>1.010572983057975</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026072693214918</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026884639756601</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018498324840049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9845505483092992</v>
+        <v>0.9854601060362841</v>
       </c>
       <c r="D24">
-        <v>1.009898780584298</v>
+        <v>1.010638638396332</v>
       </c>
       <c r="E24">
-        <v>0.9994245780133554</v>
+        <v>1.000236177035416</v>
       </c>
       <c r="F24">
-        <v>0.9996092556317622</v>
+        <v>1.000461593443644</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040137536203997</v>
+        <v>1.040450002292028</v>
       </c>
       <c r="J24">
-        <v>1.012656562319884</v>
+        <v>1.013529578274246</v>
       </c>
       <c r="K24">
-        <v>1.023754264263746</v>
+        <v>1.024481468359436</v>
       </c>
       <c r="L24">
-        <v>1.013461806247664</v>
+        <v>1.014259146409421</v>
       </c>
       <c r="M24">
-        <v>1.01364323665556</v>
+        <v>1.014480607830034</v>
       </c>
       <c r="N24">
-        <v>1.008089445763804</v>
+        <v>1.010858753984701</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027918239165698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028446388026172</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018950558092004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9915482352166737</v>
+        <v>0.9921777709097303</v>
       </c>
       <c r="D25">
-        <v>1.014300117346637</v>
+        <v>1.014703532625896</v>
       </c>
       <c r="E25">
-        <v>1.005389662421209</v>
+        <v>1.005952334757449</v>
       </c>
       <c r="F25">
-        <v>1.00673004089782</v>
+        <v>1.007320022768986</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041248359203756</v>
+        <v>1.041420894430818</v>
       </c>
       <c r="J25">
-        <v>1.016363421573416</v>
+        <v>1.016971282655846</v>
       </c>
       <c r="K25">
-        <v>1.026680425402042</v>
+        <v>1.027077803933738</v>
       </c>
       <c r="L25">
-        <v>1.017904883035519</v>
+        <v>1.018458945821199</v>
       </c>
       <c r="M25">
-        <v>1.019224772344141</v>
+        <v>1.019805757724811</v>
       </c>
       <c r="N25">
-        <v>1.009346640169658</v>
+        <v>1.011739474618313</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029984334329831</v>
+        <v>1.030278960738131</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019478566874504</v>
       </c>
     </row>
   </sheetData>
